--- a/ExcelTester/bin/Debug/net8.0-windows/Templates/憑證中心憑證費用_請付款單範本1.xlsx
+++ b/ExcelTester/bin/Debug/net8.0-windows/Templates/憑證中心憑證費用_請付款單範本1.xlsx
@@ -513,13 +513,13 @@
     </r>
   </si>
   <si>
-    <t>114/12/18</t>
+    <t>114/11/15</t>
   </si>
   <si>
     <t>事由：</t>
   </si>
   <si>
-    <t>105/10 份 再生能源憑證規費</t>
+    <t>113/09 份 再生能源憑證規費</t>
   </si>
   <si>
     <r>
@@ -732,7 +732,7 @@
     </r>
   </si>
   <si>
-    <t>1、繳納 105/10 再生能源憑證規費，審審查費總計 NTD$12,874，服務費總計 NTD$3,322，共計 NTD$16,196，詳見清單。</t>
+    <t>1、繳納 113/09 再生能源憑證規費，審審查費總計 NTD$8,817，服務費總計 NTD$6,216，共計 NTD$15,033，詳見清單。</t>
   </si>
   <si>
     <t>2、匯款資料</t>
@@ -747,7 +747,7 @@
     <t xml:space="preserve">  匯款帳號：236031007704</t>
   </si>
   <si>
-    <t>3、請財務部安排於 114/10/03 前繳納（憑證中心同意）</t>
+    <t>3、請財務部安排於 114/10/11 前繳納（憑證中心同意）。</t>
   </si>
   <si>
     <r>
@@ -914,28 +914,28 @@
     <t>服務費(元)</t>
   </si>
   <si>
-    <t>4h5p5zpi24</t>
-  </si>
-  <si>
-    <t>Murphy - Nitzsche</t>
-  </si>
-  <si>
-    <t>hu9o0323yx</t>
-  </si>
-  <si>
-    <t>Boyer - Hauck</t>
-  </si>
-  <si>
-    <t>4pbgv3xdg4</t>
-  </si>
-  <si>
-    <t>White, Sanford and Powlowski</t>
-  </si>
-  <si>
-    <t>h86xmdztpb</t>
-  </si>
-  <si>
-    <t>Mosciski - Pfeffer</t>
+    <t>exdogsw04k</t>
+  </si>
+  <si>
+    <t>Dietrich - Parisian</t>
+  </si>
+  <si>
+    <t>otw2814v64</t>
+  </si>
+  <si>
+    <t>D'Amore - Swift</t>
+  </si>
+  <si>
+    <t>7cej4zmvpg</t>
+  </si>
+  <si>
+    <t>Christiansen and Sons</t>
+  </si>
+  <si>
+    <t>zzt6s5hq7m</t>
+  </si>
+  <si>
+    <t>Walter - Keeling</t>
   </si>
   <si>
     <t>總計金額</t>
@@ -1335,7 +1335,7 @@
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
     <numFmt numFmtId="178" formatCode="[$-404]e/m/d;@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
@@ -1429,11 +1429,6 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
-    <font>
-      <sz val="16"/>
-      <name val="標楷體"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2088,7 +2083,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2267,6 +2262,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" applyFont="1" fillId="0" borderId="16" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2470,18 +2468,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" applyFont="1" fillId="0" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="178" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" applyFont="1" fillId="5" applyFill="1" borderId="45" applyBorder="1" xfId="0"/>
     <xf numFmtId="3" applyNumberFormat="1" fontId="14" applyFont="1" fillId="5" applyFill="1" borderId="45" applyBorder="1" xfId="2"/>
     <xf numFmtId="0" fontId="14" applyFont="1" fillId="5" applyFill="1" borderId="46" applyBorder="1" xfId="0"/>
@@ -5304,40 +5290,40 @@
   </cols>
   <sheetData>
     <row r="1" ht="27.5">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
     </row>
     <row r="2" ht="27.5">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
     </row>
     <row r="3" ht="17.15" customHeight="1" s="3" customFormat="1">
       <c r="A3" s="14"/>
@@ -5367,58 +5353,58 @@
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="131" t="s">
+      <c r="N4" s="61" t="s">
         <v>5</v>
       </c>
       <c r="O4" s="1"/>
     </row>
     <row r="5" ht="25.4" customHeight="1">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="132" t="s">
+      <c r="B5" s="102"/>
+      <c r="C5" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="108" t="s">
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="109"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="111" t="s">
+      <c r="K5" s="110"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="113"/>
+      <c r="N5" s="114"/>
     </row>
     <row r="6" ht="25.4" customHeight="1">
-      <c r="A6" s="102"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="115" t="s">
+      <c r="A6" s="103"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="116"/>
-      <c r="L6" s="117"/>
-      <c r="M6" s="112"/>
-      <c r="N6" s="114"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="118"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="115"/>
     </row>
     <row r="7" ht="30" customHeight="1">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="78"/>
+      <c r="B7" s="79"/>
       <c r="C7" s="2"/>
       <c r="D7" s="7" t="s">
         <v>12</v>
@@ -5443,10 +5429,10 @@
       <c r="N7" s="10"/>
     </row>
     <row r="8" ht="21.5">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="80"/>
+      <c r="B8" s="81"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -5462,83 +5448,83 @@
     </row>
     <row r="9" ht="39.65" customHeight="1" s="14" customFormat="1">
       <c r="A9" s="54"/>
-      <c r="B9" s="133" t="s">
+      <c r="B9" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="87"/>
     </row>
     <row r="10" ht="24.9" customHeight="1" s="14" customFormat="1">
       <c r="A10" s="54"/>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="61"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="62"/>
     </row>
     <row r="11" ht="24.9" customHeight="1" s="14" customFormat="1">
       <c r="A11" s="54"/>
       <c r="B11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="N11" s="61"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="N11" s="62"/>
     </row>
     <row r="12" ht="24.9" customHeight="1" s="14" customFormat="1">
       <c r="A12" s="54"/>
       <c r="B12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="63"/>
-      <c r="N12" s="61"/>
+      <c r="G12" s="64"/>
+      <c r="N12" s="62"/>
     </row>
     <row r="13" ht="30.65" customHeight="1" s="14" customFormat="1">
       <c r="A13" s="54"/>
       <c r="B13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="63"/>
-      <c r="N13" s="61"/>
+      <c r="G13" s="64"/>
+      <c r="N13" s="62"/>
     </row>
     <row r="14" ht="24.9" customHeight="1" s="14" customFormat="1">
       <c r="A14" s="54"/>
-      <c r="B14" s="134" t="s">
+      <c r="B14" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="61"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="62"/>
     </row>
     <row r="15" ht="20.25" customHeight="1" s="3" customFormat="1">
       <c r="A15" s="11" t="s">
@@ -5552,13 +5538,13 @@
       </c>
     </row>
     <row r="16" ht="24.9" customHeight="1" s="18" customFormat="1">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="92"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="93"/>
       <c r="F16" s="35" t="s">
         <v>28</v>
       </c>
@@ -5568,14 +5554,14 @@
       <c r="H16" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="88" t="s">
+      <c r="I16" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="89"/>
-      <c r="K16" s="93" t="s">
+      <c r="J16" s="90"/>
+      <c r="K16" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="L16" s="92"/>
+      <c r="L16" s="93"/>
       <c r="M16" s="40" t="s">
         <v>33</v>
       </c>
@@ -5587,12 +5573,12 @@
       <c r="A17" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="94" t="s">
+      <c r="B17" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="96"/>
       <c r="F17" s="31" t="s">
         <v>37</v>
       </c>
@@ -5602,33 +5588,33 @@
       <c r="H17" s="48">
         <f>清單!D6 + 清單!E6</f>
       </c>
-      <c r="I17" s="81"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="97"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="98"/>
       <c r="M17" s="49"/>
       <c r="N17" s="50"/>
     </row>
     <row r="18" ht="29.4" customHeight="1" s="8" customFormat="1">
-      <c r="A18" s="74" t="s">
+      <c r="A18" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="76"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="77"/>
       <c r="F18" s="29"/>
       <c r="G18" s="37"/>
-      <c r="H18" s="73">
+      <c r="H18" s="74">
         <f>H17</f>
         <v>0</v>
       </c>
-      <c r="I18" s="70"/>
-      <c r="J18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="72"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="72"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="73"/>
     </row>
     <row r="19" ht="68.4" customHeight="1" s="8" customFormat="1">
       <c r="A19" s="41" t="s">
@@ -5712,113 +5698,113 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1" style="64"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1" style="64"/>
-    <col min="3" max="3" bestFit="1" width="13.58203125" customWidth="1" style="64"/>
-    <col min="4" max="5" bestFit="1" width="11.4140625" customWidth="1" style="64"/>
-    <col min="6" max="16384" width="8.83203125" customWidth="1" style="64"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1" style="65"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1" style="65"/>
+    <col min="3" max="3" bestFit="1" width="13.58203125" customWidth="1" style="65"/>
+    <col min="4" max="5" bestFit="1" width="11.4140625" customWidth="1" style="65"/>
+    <col min="6" max="16384" width="8.83203125" customWidth="1" style="65"/>
   </cols>
   <sheetData>
     <row r="1" ht="16">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="69" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" ht="16">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="138" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="139" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="143">
-        <v>8</v>
-      </c>
-      <c r="D2" s="144">
-        <v>4493</v>
-      </c>
-      <c r="E2" s="145">
-        <v>945</v>
+      <c r="C2" s="140">
+        <v>51</v>
+      </c>
+      <c r="D2" s="141">
+        <v>3949</v>
+      </c>
+      <c r="E2" s="142">
+        <v>1747</v>
       </c>
     </row>
     <row r="3" ht="16">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="132" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="135">
-        <v>73</v>
-      </c>
-      <c r="D3" s="136">
-        <v>2376</v>
-      </c>
-      <c r="E3" s="138">
-        <v>1310</v>
+      <c r="C3" s="132">
+        <v>19</v>
+      </c>
+      <c r="D3" s="133">
+        <v>1125</v>
+      </c>
+      <c r="E3" s="135">
+        <v>1708</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="137" t="s">
+      <c r="A4" s="134" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="132" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="135">
-        <v>43</v>
-      </c>
-      <c r="D4" s="139">
-        <v>3744</v>
-      </c>
-      <c r="E4" s="140">
-        <v>560</v>
+      <c r="C4" s="132">
+        <v>90</v>
+      </c>
+      <c r="D4" s="136">
+        <v>2060</v>
+      </c>
+      <c r="E4" s="137">
+        <v>1976</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="146" t="s">
+      <c r="A5" s="143" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="147" t="s">
+      <c r="B5" s="144" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="147">
-        <v>34</v>
-      </c>
-      <c r="D5" s="148">
-        <v>2261</v>
-      </c>
-      <c r="E5" s="149">
-        <v>507</v>
+      <c r="C5" s="144">
+        <v>27</v>
+      </c>
+      <c r="D5" s="145">
+        <v>1683</v>
+      </c>
+      <c r="E5" s="146">
+        <v>785</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="150" t="s">
+      <c r="A6" s="147" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="150"/>
-      <c r="C6" s="150"/>
-      <c r="D6" s="151">
+      <c r="B6" s="147"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="148">
         <f>SUM(D2:D5)</f>
       </c>
-      <c r="E6" s="151">
+      <c r="E6" s="148">
         <f>SUM(E2:E5)</f>
       </c>
     </row>
     <row r="8">
-      <c r="E8" s="130"/>
+      <c r="E8" s="131"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -5859,40 +5845,40 @@
   </cols>
   <sheetData>
     <row r="1" ht="27.5">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
     </row>
     <row r="2" ht="27.5">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
     </row>
     <row r="3" ht="12" customHeight="1" s="3" customFormat="1">
       <c r="A3" s="14"/>
@@ -5928,52 +5914,52 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" ht="25.4" customHeight="1">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="123" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="123" t="s">
+      <c r="B5" s="102"/>
+      <c r="C5" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="108" t="s">
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="109" t="s">
         <v>67</v>
       </c>
-      <c r="K5" s="109"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="111" t="s">
+      <c r="K5" s="110"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="113"/>
+      <c r="N5" s="114"/>
     </row>
     <row r="6" ht="25.4" customHeight="1">
-      <c r="A6" s="102"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="127" t="s">
+      <c r="A6" s="103"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="128" t="s">
         <v>68</v>
       </c>
-      <c r="K6" s="128"/>
-      <c r="L6" s="129"/>
-      <c r="M6" s="112"/>
-      <c r="N6" s="114"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="130"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="115"/>
     </row>
     <row r="7" ht="30" customHeight="1">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="78"/>
+      <c r="B7" s="79"/>
       <c r="C7" s="2"/>
       <c r="D7" s="7" t="s">
         <v>12</v>
@@ -5998,10 +5984,10 @@
       <c r="N7" s="10"/>
     </row>
     <row r="8" ht="21.5">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="80"/>
+      <c r="B8" s="81"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -6133,13 +6119,13 @@
       <c r="N16" s="39"/>
     </row>
     <row r="17" ht="24.9" customHeight="1" s="18" customFormat="1">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="91"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="92"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="93"/>
       <c r="F17" s="35" t="s">
         <v>28</v>
       </c>
@@ -6149,14 +6135,14 @@
       <c r="H17" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="88" t="s">
+      <c r="I17" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="89"/>
-      <c r="K17" s="93" t="s">
+      <c r="J17" s="90"/>
+      <c r="K17" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="L17" s="92"/>
+      <c r="L17" s="93"/>
       <c r="M17" s="40" t="s">
         <v>33</v>
       </c>
@@ -6168,17 +6154,17 @@
       <c r="A18" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="94"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="95"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="96"/>
       <c r="F18" s="31"/>
       <c r="G18" s="30"/>
       <c r="H18" s="44"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="97"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="98"/>
       <c r="M18" s="46"/>
       <c r="N18" s="50"/>
     </row>
@@ -6186,17 +6172,17 @@
       <c r="A19" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="94"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="95"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="96"/>
       <c r="F19" s="31"/>
       <c r="G19" s="30"/>
       <c r="H19" s="44"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="97"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="98"/>
       <c r="M19" s="46"/>
       <c r="N19" s="51"/>
     </row>
@@ -6204,35 +6190,35 @@
       <c r="A20" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="94"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="95"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="96"/>
       <c r="F20" s="31"/>
       <c r="G20" s="30"/>
       <c r="H20" s="44"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="97"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="97"/>
+      <c r="L20" s="98"/>
       <c r="M20" s="46"/>
       <c r="N20" s="51"/>
     </row>
     <row r="21" ht="24.9" customHeight="1" s="8" customFormat="1">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="76"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="77"/>
       <c r="F21" s="29"/>
       <c r="G21" s="37"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="119"/>
-      <c r="K21" s="120"/>
-      <c r="L21" s="121"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="121"/>
+      <c r="L21" s="122"/>
       <c r="M21" s="47"/>
       <c r="N21" s="52"/>
     </row>

--- a/ExcelTester/bin/Debug/net8.0-windows/Templates/憑證中心憑證費用_請付款單範本1.xlsx
+++ b/ExcelTester/bin/Debug/net8.0-windows/Templates/憑證中心憑證費用_請付款單範本1.xlsx
@@ -301,7 +301,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <r>
       <rPr>
@@ -513,13 +513,13 @@
     </r>
   </si>
   <si>
-    <t>114/11/15</t>
+    <t>114/10/17</t>
   </si>
   <si>
     <t>事由：</t>
   </si>
   <si>
-    <t>113/09 份 再生能源憑證規費</t>
+    <t>108/07 份 再生能源憑證規費</t>
   </si>
   <si>
     <r>
@@ -732,7 +732,7 @@
     </r>
   </si>
   <si>
-    <t>1、繳納 113/09 再生能源憑證規費，審審查費總計 NTD$8,817，服務費總計 NTD$6,216，共計 NTD$15,033，詳見清單。</t>
+    <t>1、繳納 108/07 再生能源憑證規費，審審查費總計 NTD$11,661，服務費總計 NTD$5,487，共計 NTD$17,148，詳見清單。</t>
   </si>
   <si>
     <t>2、匯款資料</t>
@@ -747,7 +747,7 @@
     <t xml:space="preserve">  匯款帳號：236031007704</t>
   </si>
   <si>
-    <t>3、請財務部安排於 114/10/11 前繳納（憑證中心同意）。</t>
+    <t>3、請財務部安排於 114/11/22 前繳納（憑證中心同意）。</t>
   </si>
   <si>
     <r>
@@ -914,28 +914,34 @@
     <t>服務費(元)</t>
   </si>
   <si>
-    <t>exdogsw04k</t>
-  </si>
-  <si>
-    <t>Dietrich - Parisian</t>
-  </si>
-  <si>
-    <t>otw2814v64</t>
-  </si>
-  <si>
-    <t>D'Amore - Swift</t>
-  </si>
-  <si>
-    <t>7cej4zmvpg</t>
-  </si>
-  <si>
-    <t>Christiansen and Sons</t>
-  </si>
-  <si>
-    <t>zzt6s5hq7m</t>
-  </si>
-  <si>
-    <t>Walter - Keeling</t>
+    <t>j7h4tsbcfv</t>
+  </si>
+  <si>
+    <t>Huels Inc</t>
+  </si>
+  <si>
+    <t>823xsrl9i8</t>
+  </si>
+  <si>
+    <t>Berge, Conn and Cole</t>
+  </si>
+  <si>
+    <t>gw0ltntt6s</t>
+  </si>
+  <si>
+    <t>Goodwin Inc</t>
+  </si>
+  <si>
+    <t>nt98tletcx</t>
+  </si>
+  <si>
+    <t>Grant - Kiehn</t>
+  </si>
+  <si>
+    <t>emaxviib8l</t>
+  </si>
+  <si>
+    <t>Spinka Group</t>
   </si>
   <si>
     <t>總計金額</t>
@@ -1430,7 +1436,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1455,13 +1461,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="53">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -2004,27 +2005,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -2034,7 +2014,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2049,30 +2029,39 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2083,7 +2072,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2276,6 +2265,7 @@
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" applyFont="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="14" applyFont="1" fillId="4" applyFill="1" borderId="46" applyBorder="1" xfId="2"/>
     <xf numFmtId="0" fontId="15" applyFont="1" fillId="2" applyFill="1" borderId="43" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" fontId="15" applyFont="1" fillId="2" applyFill="1" borderId="44" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" fontId="15" applyFont="1" fillId="2" applyFill="1" borderId="44" applyBorder="1" xfId="0" applyAlignment="1">
@@ -2468,26 +2458,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" applyFont="1" fillId="0" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" fontId="14" applyFont="1" fillId="5" applyFill="1" borderId="45" applyBorder="1" xfId="0"/>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="14" applyFont="1" fillId="5" applyFill="1" borderId="45" applyBorder="1" xfId="2"/>
-    <xf numFmtId="0" fontId="14" applyFont="1" fillId="5" applyFill="1" borderId="46" applyBorder="1" xfId="0"/>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="14" applyFont="1" fillId="5" applyFill="1" borderId="47" applyBorder="1" xfId="2"/>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="14" applyFont="1" fillId="5" applyFill="1" borderId="45" applyBorder="1" xfId="0"/>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="14" applyFont="1" fillId="5" applyFill="1" borderId="47" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" fontId="14" applyFont="1" fillId="4" applyFill="1" borderId="47" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" applyFont="1" fillId="4" applyFill="1" borderId="48" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" applyFont="1" fillId="4" applyFill="1" borderId="49" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="176" applyNumberFormat="1" fontId="14" applyFont="1" fillId="4" applyFill="1" borderId="48" applyBorder="1" xfId="2"/>
+    <xf numFmtId="0" fontId="14" applyFont="1" fillId="4" applyFill="1" borderId="45" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="14" applyFont="1" fillId="4" applyFill="1" borderId="49" applyBorder="1" xfId="2"/>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="14" applyFont="1" fillId="4" applyFill="1" borderId="49" applyBorder="1" xfId="2"/>
+    <xf numFmtId="0" fontId="14" applyFont="1" fillId="4" applyFill="1" borderId="46" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" applyFont="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="14" applyFont="1" fillId="4" applyFill="1" borderId="48" applyBorder="1" xfId="2"/>
     <xf numFmtId="3" applyNumberFormat="1" fontId="14" applyFont="1" fillId="4" applyFill="1" borderId="22" applyBorder="1" xfId="2"/>
-    <xf numFmtId="0" fontId="14" applyFont="1" fillId="5" applyFill="1" borderId="50" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" fontId="14" applyFont="1" fillId="5" applyFill="1" borderId="51" applyBorder="1" xfId="0"/>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="14" applyFont="1" fillId="5" applyFill="1" borderId="51" applyBorder="1" xfId="0"/>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="14" applyFont="1" fillId="5" applyFill="1" borderId="52" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" fontId="15" applyFont="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="14" applyFont="1" fillId="4" applyFill="1" borderId="46" applyBorder="1" xfId="2"/>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="14" applyFont="1" fillId="4" applyFill="1" borderId="36" applyBorder="1" xfId="2"/>
     <xf numFmtId="3" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
@@ -5290,40 +5278,40 @@
   </cols>
   <sheetData>
     <row r="1" ht="27.5">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
     </row>
     <row r="2" ht="27.5">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
     </row>
     <row r="3" ht="17.15" customHeight="1" s="3" customFormat="1">
       <c r="A3" s="14"/>
@@ -5359,52 +5347,52 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" ht="25.4" customHeight="1">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="102"/>
-      <c r="C5" s="105" t="s">
+      <c r="B5" s="103"/>
+      <c r="C5" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="109" t="s">
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="110"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="112" t="s">
+      <c r="K5" s="111"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="114"/>
+      <c r="N5" s="115"/>
     </row>
     <row r="6" ht="25.4" customHeight="1">
-      <c r="A6" s="103"/>
-      <c r="B6" s="104"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="116" t="s">
+      <c r="A6" s="104"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="117"/>
-      <c r="L6" s="118"/>
-      <c r="M6" s="113"/>
-      <c r="N6" s="115"/>
+      <c r="K6" s="118"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="116"/>
     </row>
     <row r="7" ht="30" customHeight="1">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="79"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="2"/>
       <c r="D7" s="7" t="s">
         <v>12</v>
@@ -5429,10 +5417,10 @@
       <c r="N7" s="10"/>
     </row>
     <row r="8" ht="21.5">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="81"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -5448,38 +5436,38 @@
     </row>
     <row r="9" ht="39.65" customHeight="1" s="14" customFormat="1">
       <c r="A9" s="54"/>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="88"/>
     </row>
     <row r="10" ht="24.9" customHeight="1" s="14" customFormat="1">
       <c r="A10" s="54"/>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="85"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
       <c r="N10" s="62"/>
     </row>
     <row r="11" ht="24.9" customHeight="1" s="14" customFormat="1">
@@ -5510,20 +5498,20 @@
     </row>
     <row r="14" ht="24.9" customHeight="1" s="14" customFormat="1">
       <c r="A14" s="54"/>
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
       <c r="N14" s="62"/>
     </row>
     <row r="15" ht="20.25" customHeight="1" s="3" customFormat="1">
@@ -5538,13 +5526,13 @@
       </c>
     </row>
     <row r="16" ht="24.9" customHeight="1" s="18" customFormat="1">
-      <c r="A16" s="91" t="s">
+      <c r="A16" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="93"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="94"/>
       <c r="F16" s="35" t="s">
         <v>28</v>
       </c>
@@ -5554,14 +5542,14 @@
       <c r="H16" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="89" t="s">
+      <c r="I16" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="90"/>
-      <c r="K16" s="94" t="s">
+      <c r="J16" s="91"/>
+      <c r="K16" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="L16" s="93"/>
+      <c r="L16" s="94"/>
       <c r="M16" s="40" t="s">
         <v>33</v>
       </c>
@@ -5573,12 +5561,12 @@
       <c r="A17" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="95" t="s">
+      <c r="B17" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="97"/>
       <c r="F17" s="31" t="s">
         <v>37</v>
       </c>
@@ -5586,35 +5574,35 @@
         <v>38</v>
       </c>
       <c r="H17" s="48">
-        <f>清單!D6 + 清單!E6</f>
-      </c>
-      <c r="I17" s="82"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="97"/>
-      <c r="L17" s="98"/>
+        <f>清單!D7 + 清單!E7</f>
+      </c>
+      <c r="I17" s="83"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="99"/>
       <c r="M17" s="49"/>
       <c r="N17" s="50"/>
     </row>
     <row r="18" ht="29.4" customHeight="1" s="8" customFormat="1">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="77"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="78"/>
       <c r="F18" s="29"/>
       <c r="G18" s="37"/>
-      <c r="H18" s="74">
+      <c r="H18" s="75">
         <f>H17</f>
         <v>0</v>
       </c>
-      <c r="I18" s="71"/>
-      <c r="J18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="73"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="73"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="74"/>
     </row>
     <row r="19" ht="68.4" customHeight="1" s="8" customFormat="1">
       <c r="A19" s="41" t="s">
@@ -5706,105 +5694,122 @@
   </cols>
   <sheetData>
     <row r="1" ht="16">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="70" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" ht="16">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="133" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="134" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="140">
-        <v>51</v>
-      </c>
-      <c r="D2" s="141">
-        <v>3949</v>
-      </c>
-      <c r="E2" s="142">
-        <v>1747</v>
+      <c r="C2" s="135">
+        <v>12</v>
+      </c>
+      <c r="D2" s="139">
+        <v>2673</v>
+      </c>
+      <c r="E2" s="140">
+        <v>1019</v>
       </c>
     </row>
     <row r="3" ht="16">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="134" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="132">
-        <v>19</v>
-      </c>
-      <c r="D3" s="133">
-        <v>1125</v>
-      </c>
-      <c r="E3" s="135">
-        <v>1708</v>
+      <c r="C3" s="135">
+        <v>37</v>
+      </c>
+      <c r="D3" s="139">
+        <v>2117</v>
+      </c>
+      <c r="E3" s="140">
+        <v>833</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="133" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="132" t="s">
+      <c r="B4" s="134" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="132">
-        <v>90</v>
-      </c>
-      <c r="D4" s="136">
-        <v>2060</v>
-      </c>
-      <c r="E4" s="137">
-        <v>1976</v>
+      <c r="C4" s="135">
+        <v>62</v>
+      </c>
+      <c r="D4" s="139">
+        <v>3201</v>
+      </c>
+      <c r="E4" s="140">
+        <v>891</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="143" t="s">
+      <c r="A5" s="133" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="144" t="s">
+      <c r="B5" s="134" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="144">
-        <v>27</v>
-      </c>
-      <c r="D5" s="145">
-        <v>1683</v>
-      </c>
-      <c r="E5" s="146">
-        <v>785</v>
+      <c r="C5" s="135">
+        <v>34</v>
+      </c>
+      <c r="D5" s="139">
+        <v>1334</v>
+      </c>
+      <c r="E5" s="140">
+        <v>822</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="147" t="s">
+      <c r="A6" s="136" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="147"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="148">
-        <f>SUM(D2:D5)</f>
-      </c>
-      <c r="E6" s="148">
-        <f>SUM(E2:E5)</f>
+      <c r="B6" s="137" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="66">
+        <v>74</v>
+      </c>
+      <c r="D6" s="141">
+        <v>2336</v>
+      </c>
+      <c r="E6" s="142">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="138" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="143">
+        <f>SUM(D2:D6)</f>
+      </c>
+      <c r="E7" s="143">
+        <f>SUM(E2:E6)</f>
       </c>
     </row>
     <row r="8">
-      <c r="E8" s="131"/>
+      <c r="E8" s="132"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -5845,40 +5850,40 @@
   </cols>
   <sheetData>
     <row r="1" ht="27.5">
-      <c r="A1" s="100" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
+      <c r="A1" s="101" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
     </row>
     <row r="2" ht="27.5">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
     </row>
     <row r="3" ht="12" customHeight="1" s="3" customFormat="1">
       <c r="A3" s="14"/>
@@ -5909,57 +5914,57 @@
       <c r="L4" s="18"/>
       <c r="M4" s="4"/>
       <c r="N4" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O4" s="1"/>
     </row>
     <row r="5" ht="25.4" customHeight="1">
-      <c r="A5" s="123" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="102"/>
-      <c r="C5" s="124" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="124"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="109" t="s">
+      <c r="A5" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="K5" s="110"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="112" t="s">
+      <c r="B5" s="103"/>
+      <c r="C5" s="125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="110" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="111"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="114"/>
+      <c r="N5" s="115"/>
     </row>
     <row r="6" ht="25.4" customHeight="1">
-      <c r="A6" s="103"/>
-      <c r="B6" s="104"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="128" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6" s="129"/>
-      <c r="L6" s="130"/>
-      <c r="M6" s="113"/>
-      <c r="N6" s="115"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="129" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="130"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="116"/>
     </row>
     <row r="7" ht="30" customHeight="1">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="79"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="2"/>
       <c r="D7" s="7" t="s">
         <v>12</v>
@@ -5973,7 +5978,7 @@
         <v>14</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="19"/>
@@ -5984,10 +5989,10 @@
       <c r="N7" s="10"/>
     </row>
     <row r="8" ht="21.5">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="81"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -6119,13 +6124,13 @@
       <c r="N16" s="39"/>
     </row>
     <row r="17" ht="24.9" customHeight="1" s="18" customFormat="1">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="93"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="94"/>
       <c r="F17" s="35" t="s">
         <v>28</v>
       </c>
@@ -6135,14 +6140,14 @@
       <c r="H17" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="89" t="s">
+      <c r="I17" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="90"/>
-      <c r="K17" s="94" t="s">
+      <c r="J17" s="91"/>
+      <c r="K17" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="L17" s="93"/>
+      <c r="L17" s="94"/>
       <c r="M17" s="40" t="s">
         <v>33</v>
       </c>
@@ -6154,71 +6159,71 @@
       <c r="A18" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="95"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="96"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="97"/>
       <c r="F18" s="31"/>
       <c r="G18" s="30"/>
       <c r="H18" s="44"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="98"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="99"/>
       <c r="M18" s="46"/>
       <c r="N18" s="50"/>
     </row>
     <row r="19" ht="24.9" customHeight="1" s="8" customFormat="1">
       <c r="A19" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="95"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="96"/>
+        <v>72</v>
+      </c>
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="97"/>
       <c r="F19" s="31"/>
       <c r="G19" s="30"/>
       <c r="H19" s="44"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="97"/>
-      <c r="L19" s="98"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="99"/>
       <c r="M19" s="46"/>
       <c r="N19" s="51"/>
     </row>
     <row r="20" ht="24.9" customHeight="1" s="8" customFormat="1">
       <c r="A20" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="96"/>
+        <v>73</v>
+      </c>
+      <c r="B20" s="96"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="97"/>
       <c r="F20" s="31"/>
       <c r="G20" s="30"/>
       <c r="H20" s="44"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="97"/>
-      <c r="L20" s="98"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="99"/>
       <c r="M20" s="46"/>
       <c r="N20" s="51"/>
     </row>
     <row r="21" ht="24.9" customHeight="1" s="8" customFormat="1">
-      <c r="A21" s="75" t="s">
+      <c r="A21" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="76"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="77"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="78"/>
       <c r="F21" s="29"/>
       <c r="G21" s="37"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="120"/>
-      <c r="K21" s="121"/>
-      <c r="L21" s="122"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="121"/>
+      <c r="K21" s="122"/>
+      <c r="L21" s="123"/>
       <c r="M21" s="47"/>
       <c r="N21" s="52"/>
     </row>
@@ -6227,7 +6232,7 @@
         <v>40</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>

--- a/ExcelTester/bin/Debug/net8.0-windows/Templates/憑證中心憑證費用_請付款單範本1.xlsx
+++ b/ExcelTester/bin/Debug/net8.0-windows/Templates/憑證中心憑證費用_請付款單範本1.xlsx
@@ -301,7 +301,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <r>
       <rPr>
@@ -513,13 +513,13 @@
     </r>
   </si>
   <si>
-    <t>114/10/17</t>
+    <t>2025/04/11</t>
   </si>
   <si>
     <t>事由：</t>
   </si>
   <si>
-    <t>108/07 份 再生能源憑證規費</t>
+    <t>112/04 份 再生能源憑證規費</t>
   </si>
   <si>
     <r>
@@ -732,7 +732,7 @@
     </r>
   </si>
   <si>
-    <t>1、繳納 108/07 再生能源憑證規費，審審查費總計 NTD$11,661，服務費總計 NTD$5,487，共計 NTD$17,148，詳見清單。</t>
+    <t>1、繳納 112/4 再生能源憑證規費，審審查費總計 NTD$8,834，服務費總計 NTD$4,057，共計 NTD$12,891，詳見清單。</t>
   </si>
   <si>
     <t>2、匯款資料</t>
@@ -747,7 +747,7 @@
     <t xml:space="preserve">  匯款帳號：236031007704</t>
   </si>
   <si>
-    <t>3、請財務部安排於 114/11/22 前繳納（憑證中心同意）。</t>
+    <t>3、請財務部安排於 2025/02/18 前繳納（憑證中心同意）。</t>
   </si>
   <si>
     <r>
@@ -914,34 +914,22 @@
     <t>服務費(元)</t>
   </si>
   <si>
-    <t>j7h4tsbcfv</t>
-  </si>
-  <si>
-    <t>Huels Inc</t>
-  </si>
-  <si>
-    <t>823xsrl9i8</t>
-  </si>
-  <si>
-    <t>Berge, Conn and Cole</t>
-  </si>
-  <si>
-    <t>gw0ltntt6s</t>
-  </si>
-  <si>
-    <t>Goodwin Inc</t>
-  </si>
-  <si>
-    <t>nt98tletcx</t>
-  </si>
-  <si>
-    <t>Grant - Kiehn</t>
-  </si>
-  <si>
-    <t>emaxviib8l</t>
-  </si>
-  <si>
-    <t>Spinka Group</t>
+    <t>f7sbhehiji</t>
+  </si>
+  <si>
+    <t>Gislason Group</t>
+  </si>
+  <si>
+    <t>rgiphcj3jl</t>
+  </si>
+  <si>
+    <t>Reynolds, Beier and Wiegand</t>
+  </si>
+  <si>
+    <t>ap6cad70zz</t>
+  </si>
+  <si>
+    <t>Heaney, Quitzon and Oberbrunner</t>
   </si>
   <si>
     <t>總計金額</t>
@@ -5574,7 +5562,7 @@
         <v>38</v>
       </c>
       <c r="H17" s="48">
-        <f>清單!D7 + 清單!E7</f>
+        <f>清單!D5 + 清單!E5</f>
       </c>
       <c r="I17" s="83"/>
       <c r="J17" s="84"/>
@@ -5718,13 +5706,13 @@
         <v>55</v>
       </c>
       <c r="C2" s="135">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D2" s="139">
-        <v>2673</v>
+        <v>4235</v>
       </c>
       <c r="E2" s="140">
-        <v>1019</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="3" ht="16">
@@ -5735,77 +5723,43 @@
         <v>57</v>
       </c>
       <c r="C3" s="135">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="D3" s="139">
-        <v>2117</v>
+        <v>2283</v>
       </c>
       <c r="E3" s="140">
-        <v>833</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="136" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="137" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="135">
-        <v>62</v>
-      </c>
-      <c r="D4" s="139">
-        <v>3201</v>
-      </c>
-      <c r="E4" s="140">
-        <v>891</v>
+      <c r="C4" s="66">
+        <v>50</v>
+      </c>
+      <c r="D4" s="141">
+        <v>2316</v>
+      </c>
+      <c r="E4" s="142">
+        <v>1458</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="133" t="s">
+      <c r="A5" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="134" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="135">
-        <v>34</v>
-      </c>
-      <c r="D5" s="139">
-        <v>1334</v>
-      </c>
-      <c r="E5" s="140">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="136" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="137" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="66">
-        <v>74</v>
-      </c>
-      <c r="D6" s="141">
-        <v>2336</v>
-      </c>
-      <c r="E6" s="142">
-        <v>1922</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="138" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="138"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="143">
-        <f>SUM(D2:D6)</f>
-      </c>
-      <c r="E7" s="143">
-        <f>SUM(E2:E6)</f>
+      <c r="B5" s="138"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="143">
+        <f>SUM(D2:D4)</f>
+      </c>
+      <c r="E5" s="143">
+        <f>SUM(E2:E4)</f>
       </c>
     </row>
     <row r="8">
@@ -5851,7 +5805,7 @@
   <sheetData>
     <row r="1" ht="27.5">
       <c r="A1" s="101" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B1" s="101"/>
       <c r="C1" s="101"/>
@@ -5914,17 +5868,17 @@
       <c r="L4" s="18"/>
       <c r="M4" s="4"/>
       <c r="N4" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O4" s="1"/>
     </row>
     <row r="5" ht="25.4" customHeight="1">
       <c r="A5" s="124" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B5" s="103"/>
       <c r="C5" s="125" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D5" s="125"/>
       <c r="E5" s="125"/>
@@ -5933,7 +5887,7 @@
       <c r="H5" s="125"/>
       <c r="I5" s="126"/>
       <c r="J5" s="110" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K5" s="111"/>
       <c r="L5" s="112"/>
@@ -5953,7 +5907,7 @@
       <c r="H6" s="127"/>
       <c r="I6" s="128"/>
       <c r="J6" s="129" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K6" s="130"/>
       <c r="L6" s="131"/>
@@ -5978,7 +5932,7 @@
         <v>14</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="19"/>
@@ -6175,7 +6129,7 @@
     </row>
     <row r="19" ht="24.9" customHeight="1" s="8" customFormat="1">
       <c r="A19" s="28" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B19" s="96"/>
       <c r="C19" s="96"/>
@@ -6193,7 +6147,7 @@
     </row>
     <row r="20" ht="24.9" customHeight="1" s="8" customFormat="1">
       <c r="A20" s="28" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B20" s="96"/>
       <c r="C20" s="96"/>
@@ -6232,7 +6186,7 @@
         <v>40</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>

--- a/ExcelTester/bin/Debug/net8.0-windows/Templates/憑證中心憑證費用_請付款單範本1.xlsx
+++ b/ExcelTester/bin/Debug/net8.0-windows/Templates/憑證中心憑證費用_請付款單範本1.xlsx
@@ -301,7 +301,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <r>
       <rPr>
@@ -513,13 +513,13 @@
     </r>
   </si>
   <si>
-    <t>2025/04/11</t>
+    <t>111/12/15</t>
   </si>
   <si>
     <t>事由：</t>
   </si>
   <si>
-    <t>112/04 份 再生能源憑證規費</t>
+    <t>111/11 份 再生能源憑證規費</t>
   </si>
   <si>
     <r>
@@ -732,7 +732,7 @@
     </r>
   </si>
   <si>
-    <t>1、繳納 112/4 再生能源憑證規費，審審查費總計 NTD$8,834，服務費總計 NTD$4,057，共計 NTD$12,891，詳見清單。</t>
+    <t>1、繳納 111/11 再生能源憑證規費，審查費總計 NTD$23,322，服務費總計 NTD$260，共計 NTD$23,582，詳見清單。</t>
   </si>
   <si>
     <t>2、匯款資料</t>
@@ -747,7 +747,7 @@
     <t xml:space="preserve">  匯款帳號：236031007704</t>
   </si>
   <si>
-    <t>3、請財務部安排於 2025/02/18 前繳納（憑證中心同意）。</t>
+    <t>3、請財務部安排於 111/12/30 前繳納（憑證中心同意）。</t>
   </si>
   <si>
     <r>
@@ -914,22 +914,34 @@
     <t>服務費(元)</t>
   </si>
   <si>
-    <t>f7sbhehiji</t>
-  </si>
-  <si>
-    <t>Gislason Group</t>
-  </si>
-  <si>
-    <t>rgiphcj3jl</t>
-  </si>
-  <si>
-    <t>Reynolds, Beier and Wiegand</t>
-  </si>
-  <si>
-    <t>ap6cad70zz</t>
-  </si>
-  <si>
-    <t>Heaney, Quitzon and Oberbrunner</t>
+    <t>C001</t>
+  </si>
+  <si>
+    <t>苗栗竹南風場憑證</t>
+  </si>
+  <si>
+    <t>C002</t>
+  </si>
+  <si>
+    <t>苗栗大鵬風場憑證</t>
+  </si>
+  <si>
+    <t>C004</t>
+  </si>
+  <si>
+    <t>鑫光憑證</t>
+  </si>
+  <si>
+    <t>C006</t>
+  </si>
+  <si>
+    <t>嘉南台南頭水力電廠憑證</t>
+  </si>
+  <si>
+    <t>C007</t>
+  </si>
+  <si>
+    <t>華祥力麗憑證</t>
   </si>
   <si>
     <t>總計金額</t>
@@ -5562,7 +5574,7 @@
         <v>38</v>
       </c>
       <c r="H17" s="48">
-        <f>清單!D5 + 清單!E5</f>
+        <v>23582</v>
       </c>
       <c r="I17" s="83"/>
       <c r="J17" s="84"/>
@@ -5706,13 +5718,13 @@
         <v>55</v>
       </c>
       <c r="C2" s="135">
-        <v>24</v>
+        <v>1246</v>
       </c>
       <c r="D2" s="139">
-        <v>4235</v>
+        <v>3738</v>
       </c>
       <c r="E2" s="140">
-        <v>1002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" ht="16">
@@ -5723,43 +5735,77 @@
         <v>57</v>
       </c>
       <c r="C3" s="135">
-        <v>98</v>
+        <v>3438</v>
       </c>
       <c r="D3" s="139">
-        <v>2283</v>
+        <v>10314</v>
       </c>
       <c r="E3" s="140">
-        <v>1597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="136" t="s">
+      <c r="A4" s="133" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="134" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="66">
-        <v>50</v>
-      </c>
-      <c r="D4" s="141">
-        <v>2316</v>
-      </c>
-      <c r="E4" s="142">
-        <v>1458</v>
+      <c r="C4" s="135">
+        <v>381</v>
+      </c>
+      <c r="D4" s="139">
+        <v>1143</v>
+      </c>
+      <c r="E4" s="140">
+        <v>155</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="138" t="s">
+      <c r="A5" s="133" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="138"/>
-      <c r="C5" s="138"/>
-      <c r="D5" s="143">
-        <f>SUM(D2:D4)</f>
-      </c>
-      <c r="E5" s="143">
-        <f>SUM(E2:E4)</f>
+      <c r="B5" s="134" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="135">
+        <v>2489</v>
+      </c>
+      <c r="D5" s="139">
+        <v>7467</v>
+      </c>
+      <c r="E5" s="140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="136" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="137" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="66">
+        <v>220</v>
+      </c>
+      <c r="D6" s="141">
+        <v>660</v>
+      </c>
+      <c r="E6" s="142">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="138" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="143">
+        <v>23322</v>
+      </c>
+      <c r="E7" s="143">
+        <v>260</v>
       </c>
     </row>
     <row r="8">
@@ -5805,7 +5851,7 @@
   <sheetData>
     <row r="1" ht="27.5">
       <c r="A1" s="101" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B1" s="101"/>
       <c r="C1" s="101"/>
@@ -5868,17 +5914,17 @@
       <c r="L4" s="18"/>
       <c r="M4" s="4"/>
       <c r="N4" s="18" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="O4" s="1"/>
     </row>
     <row r="5" ht="25.4" customHeight="1">
       <c r="A5" s="124" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B5" s="103"/>
       <c r="C5" s="125" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D5" s="125"/>
       <c r="E5" s="125"/>
@@ -5887,7 +5933,7 @@
       <c r="H5" s="125"/>
       <c r="I5" s="126"/>
       <c r="J5" s="110" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K5" s="111"/>
       <c r="L5" s="112"/>
@@ -5907,7 +5953,7 @@
       <c r="H6" s="127"/>
       <c r="I6" s="128"/>
       <c r="J6" s="129" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K6" s="130"/>
       <c r="L6" s="131"/>
@@ -5932,7 +5978,7 @@
         <v>14</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="19"/>
@@ -6129,7 +6175,7 @@
     </row>
     <row r="19" ht="24.9" customHeight="1" s="8" customFormat="1">
       <c r="A19" s="28" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B19" s="96"/>
       <c r="C19" s="96"/>
@@ -6147,7 +6193,7 @@
     </row>
     <row r="20" ht="24.9" customHeight="1" s="8" customFormat="1">
       <c r="A20" s="28" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B20" s="96"/>
       <c r="C20" s="96"/>
@@ -6186,7 +6232,7 @@
         <v>40</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
